--- a/Blackboxtest.xlsx
+++ b/Blackboxtest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Blackboxtest</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Felmeddelande pga fel format</t>
+  </si>
+  <si>
+    <t>Ohanterat undantag</t>
   </si>
   <si>
     <t>empty (mellanslag)</t>
@@ -261,7 +264,9 @@
       <c t="s" s="1" r="B3">
         <v>7</v>
       </c>
-      <c s="4" r="C3"/>
+      <c t="s" s="4" r="C3">
+        <v>7</v>
+      </c>
       <c s="4" r="D3"/>
       <c s="4" r="E3"/>
     </row>
@@ -272,7 +277,9 @@
       <c t="s" s="1" r="B4">
         <v>9</v>
       </c>
-      <c s="4" r="C4"/>
+      <c t="s" s="1" r="C4">
+        <v>9</v>
+      </c>
       <c s="4" r="D4"/>
       <c s="4" r="E4"/>
     </row>
@@ -283,7 +290,9 @@
       <c t="s" s="1" r="B5">
         <v>9</v>
       </c>
-      <c s="4" r="C5"/>
+      <c t="s" s="1" r="C5">
+        <v>9</v>
+      </c>
       <c s="4" r="D5"/>
       <c s="4" r="E5"/>
     </row>
@@ -294,7 +303,9 @@
       <c t="s" s="1" r="B6">
         <v>9</v>
       </c>
-      <c s="4" r="C6"/>
+      <c t="s" s="1" r="C6">
+        <v>9</v>
+      </c>
       <c s="4" r="D6"/>
       <c s="4" r="E6"/>
     </row>
@@ -305,7 +316,9 @@
       <c t="s" s="1" r="B7">
         <v>13</v>
       </c>
-      <c s="4" r="C7"/>
+      <c t="s" s="1" r="C7">
+        <v>13</v>
+      </c>
       <c s="4" r="D7"/>
       <c s="4" r="E7"/>
     </row>
@@ -316,7 +329,9 @@
       <c t="s" s="1" r="B8">
         <v>13</v>
       </c>
-      <c s="4" r="C8"/>
+      <c t="s" s="1" r="C8">
+        <v>13</v>
+      </c>
       <c s="4" r="D8"/>
       <c s="4" r="E8"/>
     </row>
@@ -327,7 +342,9 @@
       <c t="s" s="1" r="B9">
         <v>13</v>
       </c>
-      <c s="4" r="C9"/>
+      <c t="s" s="1" r="C9">
+        <v>13</v>
+      </c>
       <c s="4" r="D9"/>
       <c s="4" r="E9"/>
     </row>
@@ -338,7 +355,9 @@
       <c t="s" s="4" r="B10">
         <v>17</v>
       </c>
-      <c s="4" r="C10"/>
+      <c t="s" s="4" r="C10">
+        <v>7</v>
+      </c>
       <c s="4" r="D10"/>
       <c s="4" r="E10"/>
     </row>
@@ -349,7 +368,9 @@
       <c t="s" s="4" r="B11">
         <v>19</v>
       </c>
-      <c s="4" r="C11"/>
+      <c t="s" s="1" r="C11">
+        <v>9</v>
+      </c>
       <c s="4" r="D11"/>
       <c s="4" r="E11"/>
     </row>
@@ -360,7 +381,9 @@
       <c t="s" s="4" r="B12">
         <v>19</v>
       </c>
-      <c s="4" r="C12"/>
+      <c t="s" s="1" r="C12">
+        <v>9</v>
+      </c>
       <c s="4" r="D12"/>
       <c s="4" r="E12"/>
     </row>
@@ -371,7 +394,9 @@
       <c t="s" s="4" r="B13">
         <v>22</v>
       </c>
-      <c s="4" r="C13"/>
+      <c t="s" s="1" r="C13">
+        <v>9</v>
+      </c>
       <c s="4" r="D13"/>
       <c s="4" r="E13"/>
     </row>
@@ -382,7 +407,9 @@
       <c t="s" s="4" r="B14">
         <v>22</v>
       </c>
-      <c s="4" r="C14"/>
+      <c t="s" s="1" r="C14">
+        <v>9</v>
+      </c>
       <c s="4" r="D14"/>
       <c s="4" r="E14"/>
     </row>
@@ -393,7 +420,9 @@
       <c t="s" s="4" r="B15">
         <v>22</v>
       </c>
-      <c s="4" r="C15"/>
+      <c t="s" s="1" r="C15">
+        <v>9</v>
+      </c>
       <c s="4" r="D15"/>
       <c s="4" r="E15"/>
     </row>
@@ -404,7 +433,9 @@
       <c t="s" s="4" r="B16">
         <v>17</v>
       </c>
-      <c s="4" r="C16"/>
+      <c t="s" s="4" r="C16">
+        <v>7</v>
+      </c>
       <c s="4" r="D16"/>
       <c s="4" r="E16"/>
     </row>
@@ -415,7 +446,9 @@
       <c t="s" s="4" r="B17">
         <v>27</v>
       </c>
-      <c s="4" r="C17"/>
+      <c t="s" s="4" r="C17">
+        <v>7</v>
+      </c>
       <c s="4" r="D17"/>
       <c s="4" r="E17"/>
     </row>
@@ -426,7 +459,9 @@
       <c t="s" s="4" r="B18">
         <v>22</v>
       </c>
-      <c s="4" r="C18"/>
+      <c t="s" s="4" r="C18">
+        <v>7</v>
+      </c>
       <c s="4" r="D18"/>
       <c s="4" r="E18"/>
     </row>
@@ -437,7 +472,9 @@
       <c t="s" s="4" r="B19">
         <v>30</v>
       </c>
-      <c s="4" r="C19"/>
+      <c t="s" s="4" r="C19">
+        <v>7</v>
+      </c>
       <c s="4" r="D19"/>
       <c s="4" r="E19"/>
     </row>
@@ -448,7 +485,9 @@
       <c t="s" s="4" r="B20">
         <v>27</v>
       </c>
-      <c s="4" r="C20"/>
+      <c t="s" s="4" r="C20">
+        <v>7</v>
+      </c>
       <c s="4" r="D20"/>
       <c s="4" r="E20"/>
     </row>
@@ -459,18 +498,22 @@
       <c t="s" s="4" r="B21">
         <v>33</v>
       </c>
-      <c s="4" r="C21"/>
+      <c t="s" s="4" r="C21">
+        <v>34</v>
+      </c>
       <c s="4" r="D21"/>
       <c s="4" r="E21"/>
     </row>
     <row r="22">
       <c t="s" s="4" r="A22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" s="4" r="B22">
         <v>17</v>
       </c>
-      <c s="4" r="C22"/>
+      <c t="s" s="4" r="C22">
+        <v>7</v>
+      </c>
       <c s="4" r="D22"/>
       <c s="4" r="E22"/>
     </row>
